--- a/va_facility_data_2025-02-20/Gloucester VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gloucester%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Gloucester VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gloucester%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R18632cd034d8487d827bf669bdd53c08"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd48ebebc099e4cf885543513501c6f3b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rabeaa8f028f1476eb3e94e5ec9ddec4f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb24098f60a4143f6b5db396c9e3a48a0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R515155427ec84238b76b6ed54ab4fd51"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R73a90b3f808141319c81fa3993f93384"/>
   </x:sheets>
 </x:workbook>
 </file>
